--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DXライブラリのやつだよ\不思議のダンジョンFinal\不思議のダンジョンFinal\Roguelike\csv\Actor\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -44,16 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進化状態</t>
-    <rPh sb="0" eb="2">
-      <t>シンカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レベル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -151,10 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>evolution</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -192,34 +178,6 @@
   </si>
   <si>
     <t>turn_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像の幅</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像の高さ</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>height</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -258,6 +216,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -622,22 +592,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.3984375" customWidth="1"/>
     <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -672,145 +643,127 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -819,28 +772,28 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -853,12 +806,6 @@
       </c>
       <c r="P4">
         <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>30</v>
-      </c>
-      <c r="R4">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -228,6 +224,14 @@
   </si>
   <si>
     <t>スキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WYVERN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIVERN_DREAD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -235,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +254,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,8 +284,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,14 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
@@ -628,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -643,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -678,10 +692,10 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -693,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -710,52 +724,52 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -763,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -807,9 +821,63 @@
       <c r="P4">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AI_paturn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>first_floor</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -227,11 +223,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WYVERN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WIVERN_DREAD</t>
+    <t>AI_pattern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイバーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイバーンドレッド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -608,12 +608,12 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
@@ -642,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -692,10 +692,10 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -707,69 +707,69 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>10</v>

--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">

--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D8C1679-5DBC-4101-9460-7F096D62B4AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -795,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -842,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -860,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>4</v>

--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D8C1679-5DBC-4101-9460-7F096D62B4AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F097F57F-0D08-4EF5-8E5D-ED397878EB86}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -233,6 +233,21 @@
   </si>
   <si>
     <t>ワイバーンドレッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現ダンジョン</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appear_Dngeon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -606,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -621,9 +636,10 @@
     <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.3984375" customWidth="1"/>
     <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +688,11 @@
       <c r="P1" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -722,8 +741,11 @@
       <c r="P2" t="s">
         <v>24</v>
       </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -772,8 +794,11 @@
       <c r="P3" t="s">
         <v>25</v>
       </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -822,8 +847,11 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -872,8 +900,11 @@
       <c r="P5">
         <v>0</v>
       </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
     </row>
   </sheetData>

--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F097F57F-0D08-4EF5-8E5D-ED397878EB86}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D4086AA-E7A8-4F80-98AA-DB93655573C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ワイバーンドレッド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出現ダンジョン</t>
     <rPh sb="0" eb="2">
       <t>シュツゲン</t>
@@ -248,6 +244,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴーレム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -795,7 +795,7 @@
         <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -892,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>0</v>

--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D4086AA-E7A8-4F80-98AA-DB93655573C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74F25C45-2932-4936-A2B4-3630E8C36D4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -229,21 +229,6 @@
   </si>
   <si>
     <t>ワイバーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出現ダンジョン</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Appear_Dngeon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -621,11 +606,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -636,10 +619,9 @@
     <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.3984375" customWidth="1"/>
     <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,11 +670,8 @@
       <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -741,11 +720,8 @@
       <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -794,11 +770,8 @@
       <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -842,21 +815,18 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -865,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -883,28 +853,25 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
     </row>
   </sheetData>

--- a/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Resources/csv/Actor/Enemy/Enemy.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike_Unity\Roguelike\Assets\Resources\csv\Actor\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74F25C45-2932-4936-A2B4-3630E8C36D4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9598B6FA-96B5-4090-9661-45C88ADF088D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,9 +606,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
